--- a/lab1/dados/lab_4/eger_lab_4.xlsx
+++ b/lab1/dados/lab_4/eger_lab_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josem\Documents\IST\4 Ano 1 Semestre\Eletronica Geral\laboratorios\lab1\dados\lab_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A075CDAD-C6CA-4D81-A6FE-84228EFD5800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705FB447-78FA-432A-956B-E5673219C1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2815,8 +2815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F244EE46-1DD5-4F70-900B-1D2948E5618E}">
   <dimension ref="A1:S179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="K71" sqref="K71"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="K141" sqref="K141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3470,7 +3470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B49" s="1">
         <v>1.0512900000000001</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>1.0529999999999999</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>213</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>1.1579999999999999</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>944</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>73.040000000000006</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>73.47999999999999</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>126.4</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>123.03999999999999</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>249.88000000000002</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>4.0148000000000001</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>50.51</v>
       </c>
@@ -3638,361 +3638,361 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
-      <c r="B62" t="s">
+      <c r="J62" t="s">
         <v>0</v>
       </c>
-      <c r="F62" t="s">
+      <c r="N62" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="1">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J63" s="1">
         <v>1.0516000000000001</v>
       </c>
-      <c r="C63" t="s">
+      <c r="K63" t="s">
         <v>2</v>
       </c>
-      <c r="F63" s="1">
+      <c r="N63" s="1">
         <v>5.6319999999999997</v>
       </c>
-      <c r="G63" t="s">
+      <c r="O63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B64">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J64">
         <v>1.054</v>
       </c>
-      <c r="C64" t="s">
+      <c r="K64" t="s">
         <v>3</v>
       </c>
-      <c r="F64">
+      <c r="N64">
         <v>5.63</v>
       </c>
-      <c r="G64" t="s">
+      <c r="O64" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B65">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J65">
         <v>213</v>
       </c>
-      <c r="C65" t="s">
+      <c r="K65" t="s">
         <v>4</v>
       </c>
-      <c r="F65">
+      <c r="N65">
         <v>800</v>
       </c>
-      <c r="G65" t="s">
+      <c r="O65" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B66">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J66">
         <v>1.1579999999999999</v>
       </c>
-      <c r="C66" t="s">
+      <c r="K66" t="s">
         <v>5</v>
       </c>
-      <c r="F66">
+      <c r="N66">
         <v>6</v>
       </c>
-      <c r="G66" t="s">
+      <c r="O66" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B67">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J67">
         <v>944</v>
       </c>
-      <c r="C67" t="s">
+      <c r="K67" t="s">
         <v>6</v>
       </c>
-      <c r="F67">
+      <c r="N67">
         <v>5.2</v>
       </c>
-      <c r="G67" t="s">
+      <c r="O67" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B68">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J68">
         <v>37.839999999999996</v>
       </c>
-      <c r="C68" t="s">
+      <c r="K68" t="s">
         <v>7</v>
       </c>
-      <c r="F68">
+      <c r="N68">
         <v>37.839999999999996</v>
       </c>
-      <c r="G68" t="s">
+      <c r="O68" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B69">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J69">
         <v>36.6</v>
       </c>
-      <c r="C69" t="s">
+      <c r="K69" t="s">
         <v>8</v>
       </c>
-      <c r="F69">
+      <c r="N69">
         <v>36.6</v>
       </c>
-      <c r="G69" t="s">
+      <c r="O69" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B70">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J70">
         <v>63.6</v>
       </c>
-      <c r="C70" t="s">
+      <c r="K70" t="s">
         <v>9</v>
       </c>
-      <c r="F70">
+      <c r="N70">
         <v>63.6</v>
       </c>
-      <c r="G70" t="s">
+      <c r="O70" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B71">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J71">
         <v>61.24</v>
       </c>
-      <c r="C71" t="s">
+      <c r="K71" t="s">
         <v>10</v>
       </c>
-      <c r="F71">
+      <c r="N71">
         <v>61.24</v>
       </c>
-      <c r="G71" t="s">
+      <c r="O71" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B72">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J72">
         <v>125.07999999999998</v>
       </c>
-      <c r="C72" t="s">
+      <c r="K72" t="s">
         <v>11</v>
       </c>
-      <c r="F72">
+      <c r="N72">
         <v>125.07999999999998</v>
       </c>
-      <c r="G72" t="s">
+      <c r="O72" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B73">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J73">
         <v>7.9969999999999999</v>
       </c>
-      <c r="C73" t="s">
+      <c r="K73" t="s">
         <v>12</v>
       </c>
-      <c r="F73">
+      <c r="N73">
         <v>7.9969999999999999</v>
       </c>
-      <c r="G73" t="s">
+      <c r="O73" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B74">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J74">
         <v>51.07</v>
       </c>
-      <c r="C74" t="s">
+      <c r="K74" t="s">
         <v>13</v>
       </c>
-      <c r="F74">
+      <c r="N74">
         <v>51.07</v>
       </c>
-      <c r="G74" t="s">
+      <c r="O74" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
-      <c r="B77" t="s">
+      <c r="J77" t="s">
         <v>0</v>
       </c>
-      <c r="F77" t="s">
+      <c r="N77" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B78" s="1">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J78" s="1">
         <v>1.0515600000000001</v>
       </c>
-      <c r="C78" t="s">
+      <c r="K78" t="s">
         <v>2</v>
       </c>
-      <c r="F78" s="1">
+      <c r="N78" s="1">
         <v>5.6360000000000001</v>
       </c>
-      <c r="G78" t="s">
+      <c r="O78" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B79">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J79">
         <v>1.054</v>
       </c>
-      <c r="C79" t="s">
+      <c r="K79" t="s">
         <v>3</v>
       </c>
-      <c r="F79">
+      <c r="N79">
         <v>5.63</v>
       </c>
-      <c r="G79" t="s">
+      <c r="O79" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B80">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J80">
         <v>213</v>
       </c>
-      <c r="C80" t="s">
+      <c r="K80" t="s">
         <v>4</v>
       </c>
-      <c r="F80">
+      <c r="N80">
         <v>800</v>
       </c>
-      <c r="G80" t="s">
+      <c r="O80" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B81">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J81">
         <v>1.1579999999999999</v>
       </c>
-      <c r="C81" t="s">
+      <c r="K81" t="s">
         <v>5</v>
       </c>
-      <c r="F81">
+      <c r="N81">
         <v>6</v>
       </c>
-      <c r="G81" t="s">
+      <c r="O81" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B82">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J82">
         <v>945</v>
       </c>
-      <c r="C82" t="s">
+      <c r="K82" t="s">
         <v>6</v>
       </c>
-      <c r="F82">
+      <c r="N82">
         <v>5.2</v>
       </c>
-      <c r="G82" t="s">
+      <c r="O82" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B83">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J83">
         <v>40.74</v>
       </c>
-      <c r="C83" t="s">
+      <c r="K83" t="s">
         <v>7</v>
       </c>
-      <c r="F83">
+      <c r="N83">
         <v>40.74</v>
       </c>
-      <c r="G83" t="s">
+      <c r="O83" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B84">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J84">
         <v>41.62</v>
       </c>
-      <c r="C84" t="s">
+      <c r="K84" t="s">
         <v>8</v>
       </c>
-      <c r="F84">
+      <c r="N84">
         <v>41.62</v>
       </c>
-      <c r="G84" t="s">
+      <c r="O84" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B85">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J85">
         <v>72.45</v>
       </c>
-      <c r="C85" t="s">
+      <c r="K85" t="s">
         <v>9</v>
       </c>
-      <c r="F85">
+      <c r="N85">
         <v>72.45</v>
       </c>
-      <c r="G85" t="s">
+      <c r="O85" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B86">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J86">
         <v>69.72</v>
       </c>
-      <c r="C86" t="s">
+      <c r="K86" t="s">
         <v>10</v>
       </c>
-      <c r="F86">
+      <c r="N86">
         <v>69.72</v>
       </c>
-      <c r="G86" t="s">
+      <c r="O86" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B87">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J87">
         <v>142.89000000000001</v>
       </c>
-      <c r="C87" t="s">
+      <c r="K87" t="s">
         <v>11</v>
       </c>
-      <c r="F87">
+      <c r="N87">
         <v>142.89000000000001</v>
       </c>
-      <c r="G87" t="s">
+      <c r="O87" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B88">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J88">
         <v>6.9954999999999998</v>
       </c>
-      <c r="C88" t="s">
+      <c r="K88" t="s">
         <v>12</v>
       </c>
-      <c r="F88">
+      <c r="N88">
         <v>6.9954999999999998</v>
       </c>
-      <c r="G88" t="s">
+      <c r="O88" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B89">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J89">
         <v>49.62</v>
       </c>
-      <c r="C89" t="s">
+      <c r="K89" t="s">
         <v>13</v>
       </c>
-      <c r="F89">
+      <c r="N89">
         <v>49.62</v>
       </c>
-      <c r="G89" t="s">
+      <c r="O89" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>0</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B93" s="1">
         <v>1.0514399999999999</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>1.054</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B95">
         <v>221</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>1.1619999999999999</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>4</v>
       </c>
       <c r="F125">
-        <v>800</v>
+        <v>210</v>
       </c>
       <c r="G125" t="s">
         <v>27</v>
@@ -4441,7 +4441,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B129">
         <v>1.4418</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B130">
         <v>2.5146000000000002</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B131">
         <v>2.4967999999999999</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B132">
         <v>5.0004</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B133">
         <v>200.06</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B134">
         <v>49.828000000000003</v>
       </c>
@@ -4525,187 +4525,223 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
-      <c r="B137" t="s">
+      <c r="M137" t="s">
         <v>0</v>
       </c>
-      <c r="F137" t="s">
+      <c r="Q137" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B138" s="1">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M138" s="1">
         <v>1.0521199999999999</v>
       </c>
-      <c r="C138" t="s">
+      <c r="N138" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F138" s="1">
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1">
         <v>5.6319999999999997</v>
       </c>
-      <c r="G138" t="s">
+      <c r="R138" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B139">
+      <c r="S138" s="1"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M139" s="1">
         <v>1.054</v>
       </c>
-      <c r="C139" t="s">
+      <c r="N139" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F139">
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1">
         <v>5.63</v>
       </c>
-      <c r="G139" t="s">
+      <c r="R139" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B140">
-        <v>213</v>
-      </c>
-      <c r="C140" t="s">
-        <v>4</v>
-      </c>
-      <c r="F140">
-        <v>800</v>
-      </c>
-      <c r="G140" t="s">
-        <v>27</v>
-      </c>
+      <c r="S139" s="1"/>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K140">
         <v>93.7</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B141">
+      <c r="M140" s="1">
+        <v>213</v>
+      </c>
+      <c r="N140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1">
+        <v>93.7</v>
+      </c>
+      <c r="R140" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S140" s="1"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M141" s="1">
         <v>1.1579999999999999</v>
       </c>
-      <c r="C141" t="s">
+      <c r="N141" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F141">
+      <c r="O141" s="1"/>
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1">
         <v>6</v>
       </c>
-      <c r="G141" t="s">
+      <c r="R141" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B142">
+      <c r="S141" s="1"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M142" s="1">
         <v>945</v>
       </c>
-      <c r="C142" t="s">
+      <c r="N142" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F142">
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1">
         <v>5.2</v>
       </c>
-      <c r="G142" t="s">
+      <c r="R142" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B143">
+      <c r="S142" s="1"/>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M143" s="1">
         <v>2.5495999999999999</v>
       </c>
-      <c r="C143" t="s">
+      <c r="N143" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F143">
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1">
         <v>2.5495999999999999</v>
       </c>
-      <c r="G143" t="s">
+      <c r="R143" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B144">
+      <c r="S143" s="1"/>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M144" s="1">
         <v>2.6448</v>
       </c>
-      <c r="C144" t="s">
+      <c r="N144" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F144">
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1">
         <v>2.6448</v>
       </c>
-      <c r="G144" t="s">
+      <c r="R144" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B145">
+      <c r="S144" s="1"/>
+    </row>
+    <row r="145" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="M145" s="1">
         <v>4.6108000000000002</v>
       </c>
-      <c r="C145" t="s">
+      <c r="N145" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F145">
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1">
         <v>4.6108000000000002</v>
       </c>
-      <c r="G145" t="s">
+      <c r="R145" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B146">
+      <c r="S145" s="1"/>
+    </row>
+    <row r="146" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="M146" s="1">
         <v>4.5815999999999999</v>
       </c>
-      <c r="C146" t="s">
+      <c r="N146" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F146">
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1">
         <v>4.5815999999999999</v>
       </c>
-      <c r="G146" t="s">
+      <c r="R146" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B147">
+      <c r="S146" s="1"/>
+    </row>
+    <row r="147" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="M147" s="1">
         <v>9.0863999999999994</v>
       </c>
-      <c r="C147" t="s">
+      <c r="N147" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F147">
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1">
         <v>9.0863999999999994</v>
       </c>
-      <c r="G147" t="s">
+      <c r="R147" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B148">
+      <c r="S147" s="1"/>
+    </row>
+    <row r="148" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="M148" s="1">
         <v>110.05</v>
       </c>
-      <c r="C148" t="s">
+      <c r="N148" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F148">
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1">
         <v>110.05</v>
       </c>
-      <c r="G148" t="s">
+      <c r="R148" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B149">
+      <c r="S148" s="1"/>
+    </row>
+    <row r="149" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="M149" s="1">
         <v>50.497</v>
       </c>
-      <c r="C149" t="s">
+      <c r="N149" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F149">
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1">
         <v>50.497</v>
       </c>
-      <c r="G149" t="s">
+      <c r="R149" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="S149" s="1"/>
+    </row>
+    <row r="152" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>0</v>
       </c>
@@ -4713,7 +4749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B153" s="1">
         <v>1.0508500000000001</v>
       </c>
@@ -4727,7 +4763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B154">
         <v>1.0529999999999999</v>
       </c>
@@ -4741,7 +4777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B155">
         <v>221</v>
       </c>
@@ -4755,7 +4791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B156">
         <v>1.1619999999999999</v>
       </c>
@@ -4769,7 +4805,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B157">
         <v>941</v>
       </c>
@@ -4783,7 +4819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B158">
         <v>338.7</v>
       </c>
@@ -4797,7 +4833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B159">
         <v>339.5</v>
       </c>
@@ -4811,7 +4847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B160">
         <v>596.19999999999993</v>
       </c>

--- a/lab1/dados/lab_4/eger_lab_4.xlsx
+++ b/lab1/dados/lab_4/eger_lab_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josem\Documents\IST\4 Ano 1 Semestre\Eletronica Geral\laboratorios\lab1\dados\lab_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705FB447-78FA-432A-956B-E5673219C1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204374E7-1977-481A-AC63-ABFA4C2263F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2815,8 +2815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F244EE46-1DD5-4F70-900B-1D2948E5618E}">
   <dimension ref="A1:S179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="K141" sqref="K141"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4390,7 +4390,7 @@
         <v>4</v>
       </c>
       <c r="F125">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="G125" t="s">
         <v>27</v>
